--- a/rqalpha_data/num_secs_listed.xlsx
+++ b/rqalpha_data/num_secs_listed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="2191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="2780">
   <si>
     <t>num_secs_listed</t>
   </si>
@@ -6587,6 +6587,1773 @@
   </si>
   <si>
     <t>2018-05-02</t>
+  </si>
+  <si>
+    <t>2006-12-29</t>
+  </si>
+  <si>
+    <t>2007-01-04</t>
+  </si>
+  <si>
+    <t>2007-01-05</t>
+  </si>
+  <si>
+    <t>2007-01-08</t>
+  </si>
+  <si>
+    <t>2007-01-09</t>
+  </si>
+  <si>
+    <t>2007-01-10</t>
+  </si>
+  <si>
+    <t>2007-01-11</t>
+  </si>
+  <si>
+    <t>2007-01-12</t>
+  </si>
+  <si>
+    <t>2007-01-15</t>
+  </si>
+  <si>
+    <t>2007-01-16</t>
+  </si>
+  <si>
+    <t>2007-01-17</t>
+  </si>
+  <si>
+    <t>2007-01-18</t>
+  </si>
+  <si>
+    <t>2007-01-19</t>
+  </si>
+  <si>
+    <t>2007-01-22</t>
+  </si>
+  <si>
+    <t>2007-01-23</t>
+  </si>
+  <si>
+    <t>2007-01-24</t>
+  </si>
+  <si>
+    <t>2007-01-25</t>
+  </si>
+  <si>
+    <t>2007-01-26</t>
+  </si>
+  <si>
+    <t>2007-01-29</t>
+  </si>
+  <si>
+    <t>2007-01-30</t>
+  </si>
+  <si>
+    <t>2007-01-31</t>
+  </si>
+  <si>
+    <t>2007-02-01</t>
+  </si>
+  <si>
+    <t>2007-02-02</t>
+  </si>
+  <si>
+    <t>2007-02-05</t>
+  </si>
+  <si>
+    <t>2007-02-06</t>
+  </si>
+  <si>
+    <t>2007-02-07</t>
+  </si>
+  <si>
+    <t>2007-02-08</t>
+  </si>
+  <si>
+    <t>2007-02-09</t>
+  </si>
+  <si>
+    <t>2007-02-12</t>
+  </si>
+  <si>
+    <t>2007-02-13</t>
+  </si>
+  <si>
+    <t>2007-02-14</t>
+  </si>
+  <si>
+    <t>2007-02-15</t>
+  </si>
+  <si>
+    <t>2007-02-16</t>
+  </si>
+  <si>
+    <t>2007-02-26</t>
+  </si>
+  <si>
+    <t>2007-02-27</t>
+  </si>
+  <si>
+    <t>2007-02-28</t>
+  </si>
+  <si>
+    <t>2007-03-01</t>
+  </si>
+  <si>
+    <t>2007-03-02</t>
+  </si>
+  <si>
+    <t>2007-03-05</t>
+  </si>
+  <si>
+    <t>2007-03-06</t>
+  </si>
+  <si>
+    <t>2007-03-07</t>
+  </si>
+  <si>
+    <t>2007-03-08</t>
+  </si>
+  <si>
+    <t>2007-03-09</t>
+  </si>
+  <si>
+    <t>2007-03-12</t>
+  </si>
+  <si>
+    <t>2007-03-13</t>
+  </si>
+  <si>
+    <t>2007-03-14</t>
+  </si>
+  <si>
+    <t>2007-03-15</t>
+  </si>
+  <si>
+    <t>2007-03-16</t>
+  </si>
+  <si>
+    <t>2007-03-19</t>
+  </si>
+  <si>
+    <t>2007-03-20</t>
+  </si>
+  <si>
+    <t>2007-03-21</t>
+  </si>
+  <si>
+    <t>2007-03-22</t>
+  </si>
+  <si>
+    <t>2007-03-23</t>
+  </si>
+  <si>
+    <t>2007-03-26</t>
+  </si>
+  <si>
+    <t>2007-03-27</t>
+  </si>
+  <si>
+    <t>2007-03-28</t>
+  </si>
+  <si>
+    <t>2007-03-29</t>
+  </si>
+  <si>
+    <t>2007-03-30</t>
+  </si>
+  <si>
+    <t>2007-04-02</t>
+  </si>
+  <si>
+    <t>2007-04-03</t>
+  </si>
+  <si>
+    <t>2007-04-04</t>
+  </si>
+  <si>
+    <t>2007-04-05</t>
+  </si>
+  <si>
+    <t>2007-04-06</t>
+  </si>
+  <si>
+    <t>2007-04-09</t>
+  </si>
+  <si>
+    <t>2007-04-10</t>
+  </si>
+  <si>
+    <t>2007-04-11</t>
+  </si>
+  <si>
+    <t>2007-04-12</t>
+  </si>
+  <si>
+    <t>2007-04-13</t>
+  </si>
+  <si>
+    <t>2007-04-16</t>
+  </si>
+  <si>
+    <t>2007-04-17</t>
+  </si>
+  <si>
+    <t>2007-04-18</t>
+  </si>
+  <si>
+    <t>2007-04-19</t>
+  </si>
+  <si>
+    <t>2007-04-20</t>
+  </si>
+  <si>
+    <t>2007-04-23</t>
+  </si>
+  <si>
+    <t>2007-04-24</t>
+  </si>
+  <si>
+    <t>2007-04-25</t>
+  </si>
+  <si>
+    <t>2007-04-26</t>
+  </si>
+  <si>
+    <t>2007-04-27</t>
+  </si>
+  <si>
+    <t>2007-04-30</t>
+  </si>
+  <si>
+    <t>2007-05-08</t>
+  </si>
+  <si>
+    <t>2007-05-09</t>
+  </si>
+  <si>
+    <t>2007-05-10</t>
+  </si>
+  <si>
+    <t>2007-05-11</t>
+  </si>
+  <si>
+    <t>2007-05-14</t>
+  </si>
+  <si>
+    <t>2007-05-15</t>
+  </si>
+  <si>
+    <t>2007-05-16</t>
+  </si>
+  <si>
+    <t>2007-05-17</t>
+  </si>
+  <si>
+    <t>2007-05-18</t>
+  </si>
+  <si>
+    <t>2007-05-21</t>
+  </si>
+  <si>
+    <t>2007-05-22</t>
+  </si>
+  <si>
+    <t>2007-05-23</t>
+  </si>
+  <si>
+    <t>2007-05-24</t>
+  </si>
+  <si>
+    <t>2007-05-25</t>
+  </si>
+  <si>
+    <t>2007-05-28</t>
+  </si>
+  <si>
+    <t>2007-05-29</t>
+  </si>
+  <si>
+    <t>2007-05-30</t>
+  </si>
+  <si>
+    <t>2007-05-31</t>
+  </si>
+  <si>
+    <t>2007-06-01</t>
+  </si>
+  <si>
+    <t>2007-06-04</t>
+  </si>
+  <si>
+    <t>2007-06-05</t>
+  </si>
+  <si>
+    <t>2007-06-06</t>
+  </si>
+  <si>
+    <t>2007-06-07</t>
+  </si>
+  <si>
+    <t>2007-06-08</t>
+  </si>
+  <si>
+    <t>2007-06-11</t>
+  </si>
+  <si>
+    <t>2007-06-12</t>
+  </si>
+  <si>
+    <t>2007-06-13</t>
+  </si>
+  <si>
+    <t>2007-06-14</t>
+  </si>
+  <si>
+    <t>2007-06-15</t>
+  </si>
+  <si>
+    <t>2007-06-18</t>
+  </si>
+  <si>
+    <t>2007-06-19</t>
+  </si>
+  <si>
+    <t>2007-06-20</t>
+  </si>
+  <si>
+    <t>2007-06-21</t>
+  </si>
+  <si>
+    <t>2007-06-22</t>
+  </si>
+  <si>
+    <t>2007-06-25</t>
+  </si>
+  <si>
+    <t>2007-06-26</t>
+  </si>
+  <si>
+    <t>2007-06-27</t>
+  </si>
+  <si>
+    <t>2007-06-28</t>
+  </si>
+  <si>
+    <t>2007-06-29</t>
+  </si>
+  <si>
+    <t>2007-07-02</t>
+  </si>
+  <si>
+    <t>2007-07-03</t>
+  </si>
+  <si>
+    <t>2007-07-04</t>
+  </si>
+  <si>
+    <t>2007-07-05</t>
+  </si>
+  <si>
+    <t>2007-07-06</t>
+  </si>
+  <si>
+    <t>2007-07-09</t>
+  </si>
+  <si>
+    <t>2007-07-10</t>
+  </si>
+  <si>
+    <t>2007-07-11</t>
+  </si>
+  <si>
+    <t>2007-07-12</t>
+  </si>
+  <si>
+    <t>2007-07-13</t>
+  </si>
+  <si>
+    <t>2007-07-16</t>
+  </si>
+  <si>
+    <t>2007-07-17</t>
+  </si>
+  <si>
+    <t>2007-07-18</t>
+  </si>
+  <si>
+    <t>2007-07-19</t>
+  </si>
+  <si>
+    <t>2007-07-20</t>
+  </si>
+  <si>
+    <t>2007-07-23</t>
+  </si>
+  <si>
+    <t>2007-07-24</t>
+  </si>
+  <si>
+    <t>2007-07-25</t>
+  </si>
+  <si>
+    <t>2007-07-26</t>
+  </si>
+  <si>
+    <t>2007-07-27</t>
+  </si>
+  <si>
+    <t>2007-07-30</t>
+  </si>
+  <si>
+    <t>2007-07-31</t>
+  </si>
+  <si>
+    <t>2007-08-01</t>
+  </si>
+  <si>
+    <t>2007-08-02</t>
+  </si>
+  <si>
+    <t>2007-08-03</t>
+  </si>
+  <si>
+    <t>2007-08-06</t>
+  </si>
+  <si>
+    <t>2007-08-07</t>
+  </si>
+  <si>
+    <t>2007-08-08</t>
+  </si>
+  <si>
+    <t>2007-08-09</t>
+  </si>
+  <si>
+    <t>2007-08-10</t>
+  </si>
+  <si>
+    <t>2007-08-13</t>
+  </si>
+  <si>
+    <t>2007-08-14</t>
+  </si>
+  <si>
+    <t>2007-08-15</t>
+  </si>
+  <si>
+    <t>2007-08-16</t>
+  </si>
+  <si>
+    <t>2007-08-17</t>
+  </si>
+  <si>
+    <t>2007-08-20</t>
+  </si>
+  <si>
+    <t>2007-08-21</t>
+  </si>
+  <si>
+    <t>2007-08-22</t>
+  </si>
+  <si>
+    <t>2007-08-23</t>
+  </si>
+  <si>
+    <t>2007-08-24</t>
+  </si>
+  <si>
+    <t>2007-08-27</t>
+  </si>
+  <si>
+    <t>2007-08-28</t>
+  </si>
+  <si>
+    <t>2007-08-29</t>
+  </si>
+  <si>
+    <t>2007-08-30</t>
+  </si>
+  <si>
+    <t>2007-08-31</t>
+  </si>
+  <si>
+    <t>2007-09-03</t>
+  </si>
+  <si>
+    <t>2007-09-04</t>
+  </si>
+  <si>
+    <t>2007-09-05</t>
+  </si>
+  <si>
+    <t>2007-09-06</t>
+  </si>
+  <si>
+    <t>2007-09-07</t>
+  </si>
+  <si>
+    <t>2007-09-10</t>
+  </si>
+  <si>
+    <t>2007-09-11</t>
+  </si>
+  <si>
+    <t>2007-09-12</t>
+  </si>
+  <si>
+    <t>2007-09-13</t>
+  </si>
+  <si>
+    <t>2007-09-14</t>
+  </si>
+  <si>
+    <t>2007-09-17</t>
+  </si>
+  <si>
+    <t>2007-09-18</t>
+  </si>
+  <si>
+    <t>2007-09-19</t>
+  </si>
+  <si>
+    <t>2007-09-20</t>
+  </si>
+  <si>
+    <t>2007-09-21</t>
+  </si>
+  <si>
+    <t>2007-09-24</t>
+  </si>
+  <si>
+    <t>2007-09-25</t>
+  </si>
+  <si>
+    <t>2007-09-26</t>
+  </si>
+  <si>
+    <t>2007-09-27</t>
+  </si>
+  <si>
+    <t>2007-09-28</t>
+  </si>
+  <si>
+    <t>2007-10-08</t>
+  </si>
+  <si>
+    <t>2007-10-09</t>
+  </si>
+  <si>
+    <t>2007-10-10</t>
+  </si>
+  <si>
+    <t>2007-10-11</t>
+  </si>
+  <si>
+    <t>2007-10-12</t>
+  </si>
+  <si>
+    <t>2007-10-15</t>
+  </si>
+  <si>
+    <t>2007-10-16</t>
+  </si>
+  <si>
+    <t>2007-10-17</t>
+  </si>
+  <si>
+    <t>2007-10-18</t>
+  </si>
+  <si>
+    <t>2007-10-19</t>
+  </si>
+  <si>
+    <t>2007-10-22</t>
+  </si>
+  <si>
+    <t>2007-10-23</t>
+  </si>
+  <si>
+    <t>2007-10-24</t>
+  </si>
+  <si>
+    <t>2007-10-25</t>
+  </si>
+  <si>
+    <t>2007-10-26</t>
+  </si>
+  <si>
+    <t>2007-10-29</t>
+  </si>
+  <si>
+    <t>2007-10-30</t>
+  </si>
+  <si>
+    <t>2007-10-31</t>
+  </si>
+  <si>
+    <t>2007-11-01</t>
+  </si>
+  <si>
+    <t>2007-11-02</t>
+  </si>
+  <si>
+    <t>2007-11-05</t>
+  </si>
+  <si>
+    <t>2007-11-06</t>
+  </si>
+  <si>
+    <t>2007-11-07</t>
+  </si>
+  <si>
+    <t>2007-11-08</t>
+  </si>
+  <si>
+    <t>2007-11-09</t>
+  </si>
+  <si>
+    <t>2007-11-12</t>
+  </si>
+  <si>
+    <t>2007-11-13</t>
+  </si>
+  <si>
+    <t>2007-11-14</t>
+  </si>
+  <si>
+    <t>2007-11-15</t>
+  </si>
+  <si>
+    <t>2007-11-16</t>
+  </si>
+  <si>
+    <t>2007-11-19</t>
+  </si>
+  <si>
+    <t>2007-11-20</t>
+  </si>
+  <si>
+    <t>2007-11-21</t>
+  </si>
+  <si>
+    <t>2007-11-22</t>
+  </si>
+  <si>
+    <t>2007-11-23</t>
+  </si>
+  <si>
+    <t>2007-11-26</t>
+  </si>
+  <si>
+    <t>2007-11-27</t>
+  </si>
+  <si>
+    <t>2007-11-28</t>
+  </si>
+  <si>
+    <t>2007-11-29</t>
+  </si>
+  <si>
+    <t>2007-11-30</t>
+  </si>
+  <si>
+    <t>2007-12-03</t>
+  </si>
+  <si>
+    <t>2007-12-04</t>
+  </si>
+  <si>
+    <t>2007-12-05</t>
+  </si>
+  <si>
+    <t>2007-12-06</t>
+  </si>
+  <si>
+    <t>2007-12-07</t>
+  </si>
+  <si>
+    <t>2007-12-10</t>
+  </si>
+  <si>
+    <t>2007-12-11</t>
+  </si>
+  <si>
+    <t>2007-12-12</t>
+  </si>
+  <si>
+    <t>2007-12-13</t>
+  </si>
+  <si>
+    <t>2007-12-14</t>
+  </si>
+  <si>
+    <t>2007-12-17</t>
+  </si>
+  <si>
+    <t>2007-12-18</t>
+  </si>
+  <si>
+    <t>2007-12-19</t>
+  </si>
+  <si>
+    <t>2007-12-20</t>
+  </si>
+  <si>
+    <t>2007-12-21</t>
+  </si>
+  <si>
+    <t>2007-12-24</t>
+  </si>
+  <si>
+    <t>2007-12-25</t>
+  </si>
+  <si>
+    <t>2007-12-26</t>
+  </si>
+  <si>
+    <t>2007-12-27</t>
+  </si>
+  <si>
+    <t>2007-12-28</t>
+  </si>
+  <si>
+    <t>2008-01-02</t>
+  </si>
+  <si>
+    <t>2008-01-03</t>
+  </si>
+  <si>
+    <t>2008-01-04</t>
+  </si>
+  <si>
+    <t>2008-01-07</t>
+  </si>
+  <si>
+    <t>2008-01-08</t>
+  </si>
+  <si>
+    <t>2008-01-09</t>
+  </si>
+  <si>
+    <t>2008-01-10</t>
+  </si>
+  <si>
+    <t>2008-01-11</t>
+  </si>
+  <si>
+    <t>2008-01-14</t>
+  </si>
+  <si>
+    <t>2008-01-15</t>
+  </si>
+  <si>
+    <t>2008-01-16</t>
+  </si>
+  <si>
+    <t>2008-01-17</t>
+  </si>
+  <si>
+    <t>2008-01-18</t>
+  </si>
+  <si>
+    <t>2008-01-21</t>
+  </si>
+  <si>
+    <t>2008-01-22</t>
+  </si>
+  <si>
+    <t>2008-01-23</t>
+  </si>
+  <si>
+    <t>2008-01-24</t>
+  </si>
+  <si>
+    <t>2008-01-25</t>
+  </si>
+  <si>
+    <t>2008-01-28</t>
+  </si>
+  <si>
+    <t>2008-01-29</t>
+  </si>
+  <si>
+    <t>2008-01-30</t>
+  </si>
+  <si>
+    <t>2008-01-31</t>
+  </si>
+  <si>
+    <t>2008-02-01</t>
+  </si>
+  <si>
+    <t>2008-02-04</t>
+  </si>
+  <si>
+    <t>2008-02-05</t>
+  </si>
+  <si>
+    <t>2008-02-13</t>
+  </si>
+  <si>
+    <t>2008-02-14</t>
+  </si>
+  <si>
+    <t>2008-02-15</t>
+  </si>
+  <si>
+    <t>2008-02-18</t>
+  </si>
+  <si>
+    <t>2008-02-19</t>
+  </si>
+  <si>
+    <t>2008-02-20</t>
+  </si>
+  <si>
+    <t>2008-02-21</t>
+  </si>
+  <si>
+    <t>2008-02-22</t>
+  </si>
+  <si>
+    <t>2008-02-25</t>
+  </si>
+  <si>
+    <t>2008-02-26</t>
+  </si>
+  <si>
+    <t>2008-02-27</t>
+  </si>
+  <si>
+    <t>2008-02-28</t>
+  </si>
+  <si>
+    <t>2008-02-29</t>
+  </si>
+  <si>
+    <t>2008-03-03</t>
+  </si>
+  <si>
+    <t>2008-03-04</t>
+  </si>
+  <si>
+    <t>2008-03-05</t>
+  </si>
+  <si>
+    <t>2008-03-06</t>
+  </si>
+  <si>
+    <t>2008-03-07</t>
+  </si>
+  <si>
+    <t>2008-03-10</t>
+  </si>
+  <si>
+    <t>2008-03-11</t>
+  </si>
+  <si>
+    <t>2008-03-12</t>
+  </si>
+  <si>
+    <t>2008-03-13</t>
+  </si>
+  <si>
+    <t>2008-03-14</t>
+  </si>
+  <si>
+    <t>2008-03-17</t>
+  </si>
+  <si>
+    <t>2008-03-18</t>
+  </si>
+  <si>
+    <t>2008-03-19</t>
+  </si>
+  <si>
+    <t>2008-03-20</t>
+  </si>
+  <si>
+    <t>2008-03-21</t>
+  </si>
+  <si>
+    <t>2008-03-24</t>
+  </si>
+  <si>
+    <t>2008-03-25</t>
+  </si>
+  <si>
+    <t>2008-03-26</t>
+  </si>
+  <si>
+    <t>2008-03-27</t>
+  </si>
+  <si>
+    <t>2008-03-28</t>
+  </si>
+  <si>
+    <t>2008-03-31</t>
+  </si>
+  <si>
+    <t>2008-04-01</t>
+  </si>
+  <si>
+    <t>2008-04-02</t>
+  </si>
+  <si>
+    <t>2008-04-03</t>
+  </si>
+  <si>
+    <t>2008-04-07</t>
+  </si>
+  <si>
+    <t>2008-04-08</t>
+  </si>
+  <si>
+    <t>2008-04-09</t>
+  </si>
+  <si>
+    <t>2008-04-10</t>
+  </si>
+  <si>
+    <t>2008-04-11</t>
+  </si>
+  <si>
+    <t>2008-04-14</t>
+  </si>
+  <si>
+    <t>2008-04-15</t>
+  </si>
+  <si>
+    <t>2008-04-16</t>
+  </si>
+  <si>
+    <t>2008-04-17</t>
+  </si>
+  <si>
+    <t>2008-04-18</t>
+  </si>
+  <si>
+    <t>2008-04-21</t>
+  </si>
+  <si>
+    <t>2008-04-22</t>
+  </si>
+  <si>
+    <t>2008-04-23</t>
+  </si>
+  <si>
+    <t>2008-04-24</t>
+  </si>
+  <si>
+    <t>2008-04-25</t>
+  </si>
+  <si>
+    <t>2008-04-28</t>
+  </si>
+  <si>
+    <t>2008-04-29</t>
+  </si>
+  <si>
+    <t>2008-04-30</t>
+  </si>
+  <si>
+    <t>2008-05-05</t>
+  </si>
+  <si>
+    <t>2008-05-06</t>
+  </si>
+  <si>
+    <t>2008-05-07</t>
+  </si>
+  <si>
+    <t>2008-05-08</t>
+  </si>
+  <si>
+    <t>2008-05-09</t>
+  </si>
+  <si>
+    <t>2008-05-12</t>
+  </si>
+  <si>
+    <t>2008-05-13</t>
+  </si>
+  <si>
+    <t>2008-05-14</t>
+  </si>
+  <si>
+    <t>2008-05-15</t>
+  </si>
+  <si>
+    <t>2008-05-16</t>
+  </si>
+  <si>
+    <t>2008-05-19</t>
+  </si>
+  <si>
+    <t>2008-05-20</t>
+  </si>
+  <si>
+    <t>2008-05-21</t>
+  </si>
+  <si>
+    <t>2008-05-22</t>
+  </si>
+  <si>
+    <t>2008-05-23</t>
+  </si>
+  <si>
+    <t>2008-05-26</t>
+  </si>
+  <si>
+    <t>2008-05-27</t>
+  </si>
+  <si>
+    <t>2008-05-28</t>
+  </si>
+  <si>
+    <t>2008-05-29</t>
+  </si>
+  <si>
+    <t>2008-05-30</t>
+  </si>
+  <si>
+    <t>2008-06-02</t>
+  </si>
+  <si>
+    <t>2008-06-03</t>
+  </si>
+  <si>
+    <t>2008-06-04</t>
+  </si>
+  <si>
+    <t>2008-06-05</t>
+  </si>
+  <si>
+    <t>2008-06-06</t>
+  </si>
+  <si>
+    <t>2008-06-10</t>
+  </si>
+  <si>
+    <t>2008-06-11</t>
+  </si>
+  <si>
+    <t>2008-06-12</t>
+  </si>
+  <si>
+    <t>2008-06-13</t>
+  </si>
+  <si>
+    <t>2008-06-16</t>
+  </si>
+  <si>
+    <t>2008-06-17</t>
+  </si>
+  <si>
+    <t>2008-06-18</t>
+  </si>
+  <si>
+    <t>2008-06-19</t>
+  </si>
+  <si>
+    <t>2008-06-20</t>
+  </si>
+  <si>
+    <t>2008-06-23</t>
+  </si>
+  <si>
+    <t>2008-06-24</t>
+  </si>
+  <si>
+    <t>2008-06-25</t>
+  </si>
+  <si>
+    <t>2008-06-26</t>
+  </si>
+  <si>
+    <t>2008-06-27</t>
+  </si>
+  <si>
+    <t>2008-06-30</t>
+  </si>
+  <si>
+    <t>2008-07-01</t>
+  </si>
+  <si>
+    <t>2008-07-02</t>
+  </si>
+  <si>
+    <t>2008-07-03</t>
+  </si>
+  <si>
+    <t>2008-07-04</t>
+  </si>
+  <si>
+    <t>2008-07-07</t>
+  </si>
+  <si>
+    <t>2008-07-08</t>
+  </si>
+  <si>
+    <t>2008-07-09</t>
+  </si>
+  <si>
+    <t>2008-07-10</t>
+  </si>
+  <si>
+    <t>2008-07-11</t>
+  </si>
+  <si>
+    <t>2008-07-14</t>
+  </si>
+  <si>
+    <t>2008-07-15</t>
+  </si>
+  <si>
+    <t>2008-07-16</t>
+  </si>
+  <si>
+    <t>2008-07-17</t>
+  </si>
+  <si>
+    <t>2008-07-18</t>
+  </si>
+  <si>
+    <t>2008-07-21</t>
+  </si>
+  <si>
+    <t>2008-07-22</t>
+  </si>
+  <si>
+    <t>2008-07-23</t>
+  </si>
+  <si>
+    <t>2008-07-24</t>
+  </si>
+  <si>
+    <t>2008-07-25</t>
+  </si>
+  <si>
+    <t>2008-07-28</t>
+  </si>
+  <si>
+    <t>2008-07-29</t>
+  </si>
+  <si>
+    <t>2008-07-30</t>
+  </si>
+  <si>
+    <t>2008-07-31</t>
+  </si>
+  <si>
+    <t>2008-08-01</t>
+  </si>
+  <si>
+    <t>2008-08-04</t>
+  </si>
+  <si>
+    <t>2008-08-05</t>
+  </si>
+  <si>
+    <t>2008-08-06</t>
+  </si>
+  <si>
+    <t>2008-08-07</t>
+  </si>
+  <si>
+    <t>2008-08-08</t>
+  </si>
+  <si>
+    <t>2008-08-11</t>
+  </si>
+  <si>
+    <t>2008-08-12</t>
+  </si>
+  <si>
+    <t>2008-08-13</t>
+  </si>
+  <si>
+    <t>2008-08-14</t>
+  </si>
+  <si>
+    <t>2008-08-15</t>
+  </si>
+  <si>
+    <t>2008-08-18</t>
+  </si>
+  <si>
+    <t>2008-08-19</t>
+  </si>
+  <si>
+    <t>2008-08-20</t>
+  </si>
+  <si>
+    <t>2008-08-21</t>
+  </si>
+  <si>
+    <t>2008-08-22</t>
+  </si>
+  <si>
+    <t>2008-08-25</t>
+  </si>
+  <si>
+    <t>2008-08-26</t>
+  </si>
+  <si>
+    <t>2008-08-27</t>
+  </si>
+  <si>
+    <t>2008-08-28</t>
+  </si>
+  <si>
+    <t>2008-08-29</t>
+  </si>
+  <si>
+    <t>2008-09-01</t>
+  </si>
+  <si>
+    <t>2008-09-02</t>
+  </si>
+  <si>
+    <t>2008-09-03</t>
+  </si>
+  <si>
+    <t>2008-09-04</t>
+  </si>
+  <si>
+    <t>2008-09-05</t>
+  </si>
+  <si>
+    <t>2008-09-08</t>
+  </si>
+  <si>
+    <t>2008-09-09</t>
+  </si>
+  <si>
+    <t>2008-09-10</t>
+  </si>
+  <si>
+    <t>2008-09-11</t>
+  </si>
+  <si>
+    <t>2008-09-12</t>
+  </si>
+  <si>
+    <t>2008-09-16</t>
+  </si>
+  <si>
+    <t>2008-09-17</t>
+  </si>
+  <si>
+    <t>2008-09-18</t>
+  </si>
+  <si>
+    <t>2008-09-19</t>
+  </si>
+  <si>
+    <t>2008-09-22</t>
+  </si>
+  <si>
+    <t>2008-09-23</t>
+  </si>
+  <si>
+    <t>2008-09-24</t>
+  </si>
+  <si>
+    <t>2008-09-25</t>
+  </si>
+  <si>
+    <t>2008-09-26</t>
+  </si>
+  <si>
+    <t>2008-10-06</t>
+  </si>
+  <si>
+    <t>2008-10-07</t>
+  </si>
+  <si>
+    <t>2008-10-08</t>
+  </si>
+  <si>
+    <t>2008-10-09</t>
+  </si>
+  <si>
+    <t>2008-10-10</t>
+  </si>
+  <si>
+    <t>2008-10-13</t>
+  </si>
+  <si>
+    <t>2008-10-14</t>
+  </si>
+  <si>
+    <t>2008-10-15</t>
+  </si>
+  <si>
+    <t>2008-10-16</t>
+  </si>
+  <si>
+    <t>2008-10-17</t>
+  </si>
+  <si>
+    <t>2008-10-20</t>
+  </si>
+  <si>
+    <t>2008-10-21</t>
+  </si>
+  <si>
+    <t>2008-10-22</t>
+  </si>
+  <si>
+    <t>2008-10-23</t>
+  </si>
+  <si>
+    <t>2008-10-24</t>
+  </si>
+  <si>
+    <t>2008-10-27</t>
+  </si>
+  <si>
+    <t>2008-10-28</t>
+  </si>
+  <si>
+    <t>2008-10-29</t>
+  </si>
+  <si>
+    <t>2008-10-30</t>
+  </si>
+  <si>
+    <t>2008-10-31</t>
+  </si>
+  <si>
+    <t>2008-11-03</t>
+  </si>
+  <si>
+    <t>2008-11-04</t>
+  </si>
+  <si>
+    <t>2008-11-05</t>
+  </si>
+  <si>
+    <t>2008-11-06</t>
+  </si>
+  <si>
+    <t>2008-11-07</t>
+  </si>
+  <si>
+    <t>2008-11-10</t>
+  </si>
+  <si>
+    <t>2008-11-11</t>
+  </si>
+  <si>
+    <t>2008-11-12</t>
+  </si>
+  <si>
+    <t>2008-11-13</t>
+  </si>
+  <si>
+    <t>2008-11-14</t>
+  </si>
+  <si>
+    <t>2008-11-17</t>
+  </si>
+  <si>
+    <t>2008-11-18</t>
+  </si>
+  <si>
+    <t>2008-11-19</t>
+  </si>
+  <si>
+    <t>2008-11-20</t>
+  </si>
+  <si>
+    <t>2008-11-21</t>
+  </si>
+  <si>
+    <t>2008-11-24</t>
+  </si>
+  <si>
+    <t>2008-11-25</t>
+  </si>
+  <si>
+    <t>2008-11-26</t>
+  </si>
+  <si>
+    <t>2008-11-27</t>
+  </si>
+  <si>
+    <t>2008-11-28</t>
+  </si>
+  <si>
+    <t>2008-12-01</t>
+  </si>
+  <si>
+    <t>2008-12-02</t>
+  </si>
+  <si>
+    <t>2008-12-03</t>
+  </si>
+  <si>
+    <t>2008-12-04</t>
+  </si>
+  <si>
+    <t>2008-12-05</t>
+  </si>
+  <si>
+    <t>2008-12-08</t>
+  </si>
+  <si>
+    <t>2008-12-09</t>
+  </si>
+  <si>
+    <t>2008-12-10</t>
+  </si>
+  <si>
+    <t>2008-12-11</t>
+  </si>
+  <si>
+    <t>2008-12-12</t>
+  </si>
+  <si>
+    <t>2008-12-15</t>
+  </si>
+  <si>
+    <t>2008-12-16</t>
+  </si>
+  <si>
+    <t>2008-12-17</t>
+  </si>
+  <si>
+    <t>2008-12-18</t>
+  </si>
+  <si>
+    <t>2008-12-19</t>
+  </si>
+  <si>
+    <t>2008-12-22</t>
+  </si>
+  <si>
+    <t>2008-12-23</t>
+  </si>
+  <si>
+    <t>2008-12-24</t>
+  </si>
+  <si>
+    <t>2008-12-25</t>
+  </si>
+  <si>
+    <t>2008-12-26</t>
+  </si>
+  <si>
+    <t>2008-12-29</t>
+  </si>
+  <si>
+    <t>2008-12-30</t>
+  </si>
+  <si>
+    <t>2008-12-31</t>
+  </si>
+  <si>
+    <t>2009-01-05</t>
+  </si>
+  <si>
+    <t>2009-01-06</t>
+  </si>
+  <si>
+    <t>2009-01-07</t>
+  </si>
+  <si>
+    <t>2009-01-08</t>
+  </si>
+  <si>
+    <t>2009-01-09</t>
+  </si>
+  <si>
+    <t>2009-01-12</t>
+  </si>
+  <si>
+    <t>2009-01-13</t>
+  </si>
+  <si>
+    <t>2009-01-14</t>
+  </si>
+  <si>
+    <t>2009-01-15</t>
+  </si>
+  <si>
+    <t>2009-01-16</t>
+  </si>
+  <si>
+    <t>2009-01-19</t>
+  </si>
+  <si>
+    <t>2009-01-20</t>
+  </si>
+  <si>
+    <t>2009-01-21</t>
+  </si>
+  <si>
+    <t>2009-01-22</t>
+  </si>
+  <si>
+    <t>2009-01-23</t>
+  </si>
+  <si>
+    <t>2009-02-02</t>
+  </si>
+  <si>
+    <t>2009-02-03</t>
+  </si>
+  <si>
+    <t>2009-02-04</t>
+  </si>
+  <si>
+    <t>2009-02-05</t>
+  </si>
+  <si>
+    <t>2009-02-06</t>
+  </si>
+  <si>
+    <t>2009-02-09</t>
+  </si>
+  <si>
+    <t>2009-02-10</t>
+  </si>
+  <si>
+    <t>2009-02-11</t>
+  </si>
+  <si>
+    <t>2009-02-12</t>
+  </si>
+  <si>
+    <t>2009-02-13</t>
+  </si>
+  <si>
+    <t>2009-02-16</t>
+  </si>
+  <si>
+    <t>2009-02-17</t>
+  </si>
+  <si>
+    <t>2009-02-18</t>
+  </si>
+  <si>
+    <t>2009-02-19</t>
+  </si>
+  <si>
+    <t>2009-02-20</t>
+  </si>
+  <si>
+    <t>2009-02-23</t>
+  </si>
+  <si>
+    <t>2009-02-24</t>
+  </si>
+  <si>
+    <t>2009-02-25</t>
+  </si>
+  <si>
+    <t>2009-02-26</t>
+  </si>
+  <si>
+    <t>2009-02-27</t>
+  </si>
+  <si>
+    <t>2009-03-02</t>
+  </si>
+  <si>
+    <t>2009-03-03</t>
+  </si>
+  <si>
+    <t>2009-03-04</t>
+  </si>
+  <si>
+    <t>2009-03-05</t>
+  </si>
+  <si>
+    <t>2009-03-06</t>
+  </si>
+  <si>
+    <t>2009-03-09</t>
+  </si>
+  <si>
+    <t>2009-03-10</t>
+  </si>
+  <si>
+    <t>2009-03-11</t>
+  </si>
+  <si>
+    <t>2009-03-12</t>
+  </si>
+  <si>
+    <t>2009-03-13</t>
+  </si>
+  <si>
+    <t>2009-03-16</t>
+  </si>
+  <si>
+    <t>2009-03-17</t>
+  </si>
+  <si>
+    <t>2009-03-18</t>
+  </si>
+  <si>
+    <t>2009-03-19</t>
+  </si>
+  <si>
+    <t>2009-03-20</t>
+  </si>
+  <si>
+    <t>2009-03-23</t>
+  </si>
+  <si>
+    <t>2009-03-24</t>
+  </si>
+  <si>
+    <t>2009-03-25</t>
+  </si>
+  <si>
+    <t>2009-03-26</t>
+  </si>
+  <si>
+    <t>2009-03-27</t>
+  </si>
+  <si>
+    <t>2009-03-30</t>
+  </si>
+  <si>
+    <t>2009-03-31</t>
+  </si>
+  <si>
+    <t>2009-04-01</t>
+  </si>
+  <si>
+    <t>2009-04-02</t>
+  </si>
+  <si>
+    <t>2009-04-03</t>
+  </si>
+  <si>
+    <t>2009-04-07</t>
+  </si>
+  <si>
+    <t>2009-04-08</t>
+  </si>
+  <si>
+    <t>2009-04-09</t>
+  </si>
+  <si>
+    <t>2009-04-10</t>
+  </si>
+  <si>
+    <t>2009-04-13</t>
+  </si>
+  <si>
+    <t>2009-04-14</t>
+  </si>
+  <si>
+    <t>2009-04-15</t>
+  </si>
+  <si>
+    <t>2009-04-16</t>
+  </si>
+  <si>
+    <t>2009-04-17</t>
+  </si>
+  <si>
+    <t>2009-04-20</t>
+  </si>
+  <si>
+    <t>2009-04-21</t>
+  </si>
+  <si>
+    <t>2009-04-22</t>
+  </si>
+  <si>
+    <t>2009-04-23</t>
+  </si>
+  <si>
+    <t>2009-04-24</t>
+  </si>
+  <si>
+    <t>2009-04-27</t>
+  </si>
+  <si>
+    <t>2009-04-28</t>
+  </si>
+  <si>
+    <t>2009-04-29</t>
+  </si>
+  <si>
+    <t>2009-04-30</t>
+  </si>
+  <si>
+    <t>2018-05-03</t>
+  </si>
+  <si>
+    <t>2018-05-04</t>
+  </si>
+  <si>
+    <t>2018-05-07</t>
+  </si>
+  <si>
+    <t>2018-05-08</t>
+  </si>
+  <si>
+    <t>2018-05-09</t>
+  </si>
+  <si>
+    <t>2018-05-10</t>
+  </si>
+  <si>
+    <t>2018-05-11</t>
+  </si>
+  <si>
+    <t>2018-05-14</t>
+  </si>
+  <si>
+    <t>2018-05-15</t>
+  </si>
+  <si>
+    <t>2018-05-16</t>
+  </si>
+  <si>
+    <t>2018-05-17</t>
+  </si>
+  <si>
+    <t>2018-05-18</t>
+  </si>
+  <si>
+    <t>2018-05-21</t>
+  </si>
+  <si>
+    <t>2018-05-22</t>
+  </si>
+  <si>
+    <t>2018-05-23</t>
+  </si>
+  <si>
+    <t>2018-05-24</t>
+  </si>
+  <si>
+    <t>2018-05-25</t>
+  </si>
+  <si>
+    <t>2018-05-28</t>
+  </si>
+  <si>
+    <t>2018-05-29</t>
+  </si>
+  <si>
+    <t>2018-05-30</t>
+  </si>
+  <si>
+    <t>2018-05-31</t>
+  </si>
+  <si>
+    <t>2018-06-01</t>
   </si>
 </sst>
 </file>
@@ -6944,7 +8711,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2191"/>
+  <dimension ref="A1:B2780"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24475,6 +26242,4718 @@
         <v>3513</v>
       </c>
     </row>
+    <row r="2192" spans="1:2">
+      <c r="A2192" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B2192">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:2">
+      <c r="A2193" s="1" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B2193">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:2">
+      <c r="A2194" s="1" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B2194">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:2">
+      <c r="A2195" s="1" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B2195">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:2">
+      <c r="A2196" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B2196">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:2">
+      <c r="A2197" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B2197">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:2">
+      <c r="A2198" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B2198">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:2">
+      <c r="A2199" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B2199">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:2">
+      <c r="A2200" s="1" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B2200">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:2">
+      <c r="A2201" s="1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B2201">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:2">
+      <c r="A2202" s="1" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B2202">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:2">
+      <c r="A2203" s="1" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B2203">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:2">
+      <c r="A2204" s="1" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B2204">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:2">
+      <c r="A2205" s="1" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B2205">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:2">
+      <c r="A2206" s="1" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B2206">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:2">
+      <c r="A2207" s="1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B2207">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:2">
+      <c r="A2208" s="1" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B2208">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:2">
+      <c r="A2209" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B2209">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:2">
+      <c r="A2210" s="1" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B2210">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:2">
+      <c r="A2211" s="1" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B2211">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:2">
+      <c r="A2212" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B2212">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:2">
+      <c r="A2213" s="1" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B2213">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:2">
+      <c r="A2214" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B2214">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:2">
+      <c r="A2215" s="1" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B2215">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:2">
+      <c r="A2216" s="1" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B2216">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:2">
+      <c r="A2217" s="1" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B2217">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:2">
+      <c r="A2218" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B2218">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:2">
+      <c r="A2219" s="1" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B2219">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:2">
+      <c r="A2220" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B2220">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:2">
+      <c r="A2221" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B2221">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:2">
+      <c r="A2222" s="1" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B2222">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:2">
+      <c r="A2223" s="1" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B2223">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:2">
+      <c r="A2224" s="1" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B2224">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:2">
+      <c r="A2225" s="1" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B2225">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:2">
+      <c r="A2226" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B2226">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:2">
+      <c r="A2227" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B2227">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:2">
+      <c r="A2228" s="1" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B2228">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:2">
+      <c r="A2229" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B2229">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:2">
+      <c r="A2230" s="1" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B2230">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:2">
+      <c r="A2231" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B2231">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:2">
+      <c r="A2232" s="1" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B2232">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:2">
+      <c r="A2233" s="1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B2233">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:2">
+      <c r="A2234" s="1" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B2234">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:2">
+      <c r="A2235" s="1" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B2235">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:2">
+      <c r="A2236" s="1" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B2236">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:2">
+      <c r="A2237" s="1" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B2237">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:2">
+      <c r="A2238" s="1" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B2238">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:2">
+      <c r="A2239" s="1" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B2239">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:2">
+      <c r="A2240" s="1" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B2240">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:2">
+      <c r="A2241" s="1" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B2241">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:2">
+      <c r="A2242" s="1" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B2242">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:2">
+      <c r="A2243" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B2243">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:2">
+      <c r="A2244" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B2244">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:2">
+      <c r="A2245" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B2245">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:2">
+      <c r="A2246" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B2246">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:2">
+      <c r="A2247" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B2247">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:2">
+      <c r="A2248" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B2248">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:2">
+      <c r="A2249" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B2249">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:2">
+      <c r="A2250" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B2250">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:2">
+      <c r="A2251" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B2251">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:2">
+      <c r="A2252" s="1" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B2252">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:2">
+      <c r="A2253" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B2253">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:2">
+      <c r="A2254" s="1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B2254">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:2">
+      <c r="A2255" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B2255">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:2">
+      <c r="A2256" s="1" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B2256">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:2">
+      <c r="A2257" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B2257">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:2">
+      <c r="A2258" s="1" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B2258">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:2">
+      <c r="A2259" s="1" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B2259">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:2">
+      <c r="A2260" s="1" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B2260">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:2">
+      <c r="A2261" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B2261">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:2">
+      <c r="A2262" s="1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B2262">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:2">
+      <c r="A2263" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B2263">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:2">
+      <c r="A2264" s="1" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B2264">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:2">
+      <c r="A2265" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B2265">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:2">
+      <c r="A2266" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B2266">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:2">
+      <c r="A2267" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B2267">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:2">
+      <c r="A2268" s="1" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B2268">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:2">
+      <c r="A2269" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B2269">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:2">
+      <c r="A2270" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="B2270">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:2">
+      <c r="A2271" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B2271">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:2">
+      <c r="A2272" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B2272">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:2">
+      <c r="A2273" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B2273">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:2">
+      <c r="A2274" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B2274">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:2">
+      <c r="A2275" s="1" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B2275">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:2">
+      <c r="A2276" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B2276">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:2">
+      <c r="A2277" s="1" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B2277">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:2">
+      <c r="A2278" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B2278">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:2">
+      <c r="A2279" s="1" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B2279">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:2">
+      <c r="A2280" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B2280">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:2">
+      <c r="A2281" s="1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B2281">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:2">
+      <c r="A2282" s="1" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B2282">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:2">
+      <c r="A2283" s="1" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B2283">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:2">
+      <c r="A2284" s="1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B2284">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:2">
+      <c r="A2285" s="1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B2285">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:2">
+      <c r="A2286" s="1" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B2286">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:2">
+      <c r="A2287" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B2287">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:2">
+      <c r="A2288" s="1" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B2288">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:2">
+      <c r="A2289" s="1" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B2289">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:2">
+      <c r="A2290" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B2290">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:2">
+      <c r="A2291" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B2291">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:2">
+      <c r="A2292" s="1" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B2292">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:2">
+      <c r="A2293" s="1" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B2293">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:2">
+      <c r="A2294" s="1" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B2294">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:2">
+      <c r="A2295" s="1" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B2295">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:2">
+      <c r="A2296" s="1" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B2296">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:2">
+      <c r="A2297" s="1" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B2297">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:2">
+      <c r="A2298" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B2298">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:2">
+      <c r="A2299" s="1" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B2299">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:2">
+      <c r="A2300" s="1" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B2300">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:2">
+      <c r="A2301" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B2301">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:2">
+      <c r="A2302" s="1" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B2302">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:2">
+      <c r="A2303" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B2303">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:2">
+      <c r="A2304" s="1" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B2304">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:2">
+      <c r="A2305" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B2305">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:2">
+      <c r="A2306" s="1" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B2306">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:2">
+      <c r="A2307" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="B2307">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:2">
+      <c r="A2308" s="1" t="s">
+        <v>2307</v>
+      </c>
+      <c r="B2308">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:2">
+      <c r="A2309" s="1" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B2309">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:2">
+      <c r="A2310" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="B2310">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:2">
+      <c r="A2311" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B2311">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:2">
+      <c r="A2312" s="1" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B2312">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:2">
+      <c r="A2313" s="1" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B2313">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:2">
+      <c r="A2314" s="1" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B2314">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:2">
+      <c r="A2315" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B2315">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:2">
+      <c r="A2316" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B2316">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:2">
+      <c r="A2317" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B2317">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:2">
+      <c r="A2318" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B2318">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:2">
+      <c r="A2319" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B2319">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:2">
+      <c r="A2320" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B2320">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:2">
+      <c r="A2321" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B2321">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:2">
+      <c r="A2322" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B2322">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:2">
+      <c r="A2323" s="1" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B2323">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:2">
+      <c r="A2324" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B2324">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:2">
+      <c r="A2325" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B2325">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:2">
+      <c r="A2326" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B2326">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:2">
+      <c r="A2327" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B2327">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:2">
+      <c r="A2328" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B2328">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:2">
+      <c r="A2329" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B2329">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:2">
+      <c r="A2330" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B2330">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:2">
+      <c r="A2331" s="1" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B2331">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:2">
+      <c r="A2332" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B2332">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:2">
+      <c r="A2333" s="1" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B2333">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:2">
+      <c r="A2334" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B2334">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:2">
+      <c r="A2335" s="1" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B2335">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:2">
+      <c r="A2336" s="1" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B2336">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:2">
+      <c r="A2337" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B2337">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:2">
+      <c r="A2338" s="1" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B2338">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:2">
+      <c r="A2339" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B2339">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:2">
+      <c r="A2340" s="1" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B2340">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:2">
+      <c r="A2341" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B2341">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:2">
+      <c r="A2342" s="1" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B2342">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:2">
+      <c r="A2343" s="1" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B2343">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:2">
+      <c r="A2344" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B2344">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:2">
+      <c r="A2345" s="1" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B2345">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:2">
+      <c r="A2346" s="1" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B2346">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:2">
+      <c r="A2347" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B2347">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:2">
+      <c r="A2348" s="1" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B2348">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:2">
+      <c r="A2349" s="1" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B2349">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:2">
+      <c r="A2350" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B2350">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:2">
+      <c r="A2351" s="1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B2351">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:2">
+      <c r="A2352" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B2352">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:2">
+      <c r="A2353" s="1" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B2353">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:2">
+      <c r="A2354" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B2354">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:2">
+      <c r="A2355" s="1" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B2355">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:2">
+      <c r="A2356" s="1" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B2356">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:2">
+      <c r="A2357" s="1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B2357">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:2">
+      <c r="A2358" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B2358">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:2">
+      <c r="A2359" s="1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B2359">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:2">
+      <c r="A2360" s="1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B2360">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:2">
+      <c r="A2361" s="1" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B2361">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:2">
+      <c r="A2362" s="1" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B2362">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:2">
+      <c r="A2363" s="1" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B2363">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:2">
+      <c r="A2364" s="1" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B2364">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:2">
+      <c r="A2365" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B2365">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:2">
+      <c r="A2366" s="1" t="s">
+        <v>2365</v>
+      </c>
+      <c r="B2366">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:2">
+      <c r="A2367" s="1" t="s">
+        <v>2366</v>
+      </c>
+      <c r="B2367">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:2">
+      <c r="A2368" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B2368">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:2">
+      <c r="A2369" s="1" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B2369">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:2">
+      <c r="A2370" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B2370">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:2">
+      <c r="A2371" s="1" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B2371">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:2">
+      <c r="A2372" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B2372">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:2">
+      <c r="A2373" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B2373">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:2">
+      <c r="A2374" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B2374">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:2">
+      <c r="A2375" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B2375">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:2">
+      <c r="A2376" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B2376">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:2">
+      <c r="A2377" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B2377">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:2">
+      <c r="A2378" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B2378">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:2">
+      <c r="A2379" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B2379">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:2">
+      <c r="A2380" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B2380">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:2">
+      <c r="A2381" s="1" t="s">
+        <v>2380</v>
+      </c>
+      <c r="B2381">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:2">
+      <c r="A2382" s="1" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B2382">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:2">
+      <c r="A2383" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B2383">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:2">
+      <c r="A2384" s="1" t="s">
+        <v>2383</v>
+      </c>
+      <c r="B2384">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:2">
+      <c r="A2385" s="1" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B2385">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:2">
+      <c r="A2386" s="1" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B2386">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:2">
+      <c r="A2387" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="B2387">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:2">
+      <c r="A2388" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B2388">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:2">
+      <c r="A2389" s="1" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B2389">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:2">
+      <c r="A2390" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B2390">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:2">
+      <c r="A2391" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B2391">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:2">
+      <c r="A2392" s="1" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B2392">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:2">
+      <c r="A2393" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B2393">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:2">
+      <c r="A2394" s="1" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B2394">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:2">
+      <c r="A2395" s="1" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B2395">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:2">
+      <c r="A2396" s="1" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B2396">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:2">
+      <c r="A2397" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B2397">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:2">
+      <c r="A2398" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B2398">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:2">
+      <c r="A2399" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="B2399">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:2">
+      <c r="A2400" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="B2400">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:2">
+      <c r="A2401" s="1" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B2401">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:2">
+      <c r="A2402" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="B2402">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:2">
+      <c r="A2403" s="1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B2403">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:2">
+      <c r="A2404" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="B2404">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:2">
+      <c r="A2405" s="1" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B2405">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:2">
+      <c r="A2406" s="1" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B2406">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:2">
+      <c r="A2407" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B2407">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:2">
+      <c r="A2408" s="1" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B2408">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:2">
+      <c r="A2409" s="1" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B2409">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:2">
+      <c r="A2410" s="1" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B2410">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:2">
+      <c r="A2411" s="1" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B2411">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:2">
+      <c r="A2412" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B2412">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:2">
+      <c r="A2413" s="1" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B2413">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:2">
+      <c r="A2414" s="1" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B2414">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:2">
+      <c r="A2415" s="1" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B2415">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:2">
+      <c r="A2416" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B2416">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:2">
+      <c r="A2417" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B2417">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:2">
+      <c r="A2418" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="B2418">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:2">
+      <c r="A2419" s="1" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B2419">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:2">
+      <c r="A2420" s="1" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B2420">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:2">
+      <c r="A2421" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B2421">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:2">
+      <c r="A2422" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B2422">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:2">
+      <c r="A2423" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B2423">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:2">
+      <c r="A2424" s="1" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B2424">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:2">
+      <c r="A2425" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B2425">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:2">
+      <c r="A2426" s="1" t="s">
+        <v>2425</v>
+      </c>
+      <c r="B2426">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:2">
+      <c r="A2427" s="1" t="s">
+        <v>2426</v>
+      </c>
+      <c r="B2427">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:2">
+      <c r="A2428" s="1" t="s">
+        <v>2427</v>
+      </c>
+      <c r="B2428">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:2">
+      <c r="A2429" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B2429">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:2">
+      <c r="A2430" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="B2430">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:2">
+      <c r="A2431" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="B2431">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:2">
+      <c r="A2432" s="1" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B2432">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:2">
+      <c r="A2433" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B2433">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:2">
+      <c r="A2434" s="1" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B2434">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:2">
+      <c r="A2435" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B2435">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:2">
+      <c r="A2436" s="1" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B2436">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:2">
+      <c r="A2437" s="1" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B2437">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:2">
+      <c r="A2438" s="1" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B2438">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:2">
+      <c r="A2439" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B2439">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:2">
+      <c r="A2440" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B2440">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:2">
+      <c r="A2441" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="B2441">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:2">
+      <c r="A2442" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="B2442">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:2">
+      <c r="A2443" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="B2443">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:2">
+      <c r="A2444" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B2444">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:2">
+      <c r="A2445" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="B2445">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:2">
+      <c r="A2446" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B2446">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:2">
+      <c r="A2447" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="B2447">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:2">
+      <c r="A2448" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B2448">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:2">
+      <c r="A2449" s="1" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B2449">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:2">
+      <c r="A2450" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="B2450">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:2">
+      <c r="A2451" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B2451">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:2">
+      <c r="A2452" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B2452">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:2">
+      <c r="A2453" s="1" t="s">
+        <v>2452</v>
+      </c>
+      <c r="B2453">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:2">
+      <c r="A2454" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B2454">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:2">
+      <c r="A2455" s="1" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B2455">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:2">
+      <c r="A2456" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B2456">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:2">
+      <c r="A2457" s="1" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B2457">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:2">
+      <c r="A2458" s="1" t="s">
+        <v>2457</v>
+      </c>
+      <c r="B2458">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:2">
+      <c r="A2459" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B2459">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:2">
+      <c r="A2460" s="1" t="s">
+        <v>2459</v>
+      </c>
+      <c r="B2460">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:2">
+      <c r="A2461" s="1" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B2461">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:2">
+      <c r="A2462" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="B2462">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:2">
+      <c r="A2463" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B2463">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:2">
+      <c r="A2464" s="1" t="s">
+        <v>2463</v>
+      </c>
+      <c r="B2464">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:2">
+      <c r="A2465" s="1" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B2465">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:2">
+      <c r="A2466" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B2466">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:2">
+      <c r="A2467" s="1" t="s">
+        <v>2466</v>
+      </c>
+      <c r="B2467">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:2">
+      <c r="A2468" s="1" t="s">
+        <v>2467</v>
+      </c>
+      <c r="B2468">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:2">
+      <c r="A2469" s="1" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B2469">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:2">
+      <c r="A2470" s="1" t="s">
+        <v>2469</v>
+      </c>
+      <c r="B2470">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:2">
+      <c r="A2471" s="1" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B2471">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:2">
+      <c r="A2472" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="B2472">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:2">
+      <c r="A2473" s="1" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B2473">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:2">
+      <c r="A2474" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="B2474">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:2">
+      <c r="A2475" s="1" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B2475">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:2">
+      <c r="A2476" s="1" t="s">
+        <v>2475</v>
+      </c>
+      <c r="B2476">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:2">
+      <c r="A2477" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B2477">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:2">
+      <c r="A2478" s="1" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B2478">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:2">
+      <c r="A2479" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B2479">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:2">
+      <c r="A2480" s="1" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B2480">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:2">
+      <c r="A2481" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="B2481">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:2">
+      <c r="A2482" s="1" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B2482">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:2">
+      <c r="A2483" s="1" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B2483">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:2">
+      <c r="A2484" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B2484">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:2">
+      <c r="A2485" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B2485">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:2">
+      <c r="A2486" s="1" t="s">
+        <v>2485</v>
+      </c>
+      <c r="B2486">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:2">
+      <c r="A2487" s="1" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B2487">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:2">
+      <c r="A2488" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B2488">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:2">
+      <c r="A2489" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B2489">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:2">
+      <c r="A2490" s="1" t="s">
+        <v>2489</v>
+      </c>
+      <c r="B2490">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:2">
+      <c r="A2491" s="1" t="s">
+        <v>2490</v>
+      </c>
+      <c r="B2491">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:2">
+      <c r="A2492" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B2492">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:2">
+      <c r="A2493" s="1" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B2493">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:2">
+      <c r="A2494" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="B2494">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:2">
+      <c r="A2495" s="1" t="s">
+        <v>2494</v>
+      </c>
+      <c r="B2495">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:2">
+      <c r="A2496" s="1" t="s">
+        <v>2495</v>
+      </c>
+      <c r="B2496">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:2">
+      <c r="A2497" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B2497">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:2">
+      <c r="A2498" s="1" t="s">
+        <v>2497</v>
+      </c>
+      <c r="B2498">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:2">
+      <c r="A2499" s="1" t="s">
+        <v>2498</v>
+      </c>
+      <c r="B2499">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:2">
+      <c r="A2500" s="1" t="s">
+        <v>2499</v>
+      </c>
+      <c r="B2500">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:2">
+      <c r="A2501" s="1" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B2501">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:2">
+      <c r="A2502" s="1" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B2502">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:2">
+      <c r="A2503" s="1" t="s">
+        <v>2502</v>
+      </c>
+      <c r="B2503">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:2">
+      <c r="A2504" s="1" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B2504">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:2">
+      <c r="A2505" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B2505">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:2">
+      <c r="A2506" s="1" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B2506">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:2">
+      <c r="A2507" s="1" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B2507">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:2">
+      <c r="A2508" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B2508">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:2">
+      <c r="A2509" s="1" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B2509">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:2">
+      <c r="A2510" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B2510">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:2">
+      <c r="A2511" s="1" t="s">
+        <v>2510</v>
+      </c>
+      <c r="B2511">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:2">
+      <c r="A2512" s="1" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B2512">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:2">
+      <c r="A2513" s="1" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B2513">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:2">
+      <c r="A2514" s="1" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B2514">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:2">
+      <c r="A2515" s="1" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B2515">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:2">
+      <c r="A2516" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B2516">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:2">
+      <c r="A2517" s="1" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B2517">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:2">
+      <c r="A2518" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B2518">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:2">
+      <c r="A2519" s="1" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B2519">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:2">
+      <c r="A2520" s="1" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B2520">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:2">
+      <c r="A2521" s="1" t="s">
+        <v>2520</v>
+      </c>
+      <c r="B2521">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:2">
+      <c r="A2522" s="1" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B2522">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:2">
+      <c r="A2523" s="1" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B2523">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:2">
+      <c r="A2524" s="1" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B2524">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:2">
+      <c r="A2525" s="1" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B2525">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:2">
+      <c r="A2526" s="1" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B2526">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:2">
+      <c r="A2527" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="B2527">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:2">
+      <c r="A2528" s="1" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B2528">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:2">
+      <c r="A2529" s="1" t="s">
+        <v>2528</v>
+      </c>
+      <c r="B2529">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:2">
+      <c r="A2530" s="1" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B2530">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:2">
+      <c r="A2531" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="B2531">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:2">
+      <c r="A2532" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B2532">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:2">
+      <c r="A2533" s="1" t="s">
+        <v>2532</v>
+      </c>
+      <c r="B2533">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:2">
+      <c r="A2534" s="1" t="s">
+        <v>2533</v>
+      </c>
+      <c r="B2534">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:2">
+      <c r="A2535" s="1" t="s">
+        <v>2534</v>
+      </c>
+      <c r="B2535">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:2">
+      <c r="A2536" s="1" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B2536">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:2">
+      <c r="A2537" s="1" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B2537">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:2">
+      <c r="A2538" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B2538">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:2">
+      <c r="A2539" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="B2539">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:2">
+      <c r="A2540" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="B2540">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:2">
+      <c r="A2541" s="1" t="s">
+        <v>2540</v>
+      </c>
+      <c r="B2541">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:2">
+      <c r="A2542" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B2542">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:2">
+      <c r="A2543" s="1" t="s">
+        <v>2542</v>
+      </c>
+      <c r="B2543">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:2">
+      <c r="A2544" s="1" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B2544">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:2">
+      <c r="A2545" s="1" t="s">
+        <v>2544</v>
+      </c>
+      <c r="B2545">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:2">
+      <c r="A2546" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B2546">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:2">
+      <c r="A2547" s="1" t="s">
+        <v>2546</v>
+      </c>
+      <c r="B2547">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:2">
+      <c r="A2548" s="1" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B2548">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:2">
+      <c r="A2549" s="1" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B2549">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:2">
+      <c r="A2550" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B2550">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:2">
+      <c r="A2551" s="1" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B2551">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:2">
+      <c r="A2552" s="1" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B2552">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:2">
+      <c r="A2553" s="1" t="s">
+        <v>2552</v>
+      </c>
+      <c r="B2553">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:2">
+      <c r="A2554" s="1" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B2554">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:2">
+      <c r="A2555" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="B2555">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:2">
+      <c r="A2556" s="1" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B2556">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:2">
+      <c r="A2557" s="1" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B2557">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:2">
+      <c r="A2558" s="1" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B2558">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:2">
+      <c r="A2559" s="1" t="s">
+        <v>2558</v>
+      </c>
+      <c r="B2559">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:2">
+      <c r="A2560" s="1" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B2560">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:2">
+      <c r="A2561" s="1" t="s">
+        <v>2560</v>
+      </c>
+      <c r="B2561">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:2">
+      <c r="A2562" s="1" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B2562">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:2">
+      <c r="A2563" s="1" t="s">
+        <v>2562</v>
+      </c>
+      <c r="B2563">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:2">
+      <c r="A2564" s="1" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B2564">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:2">
+      <c r="A2565" s="1" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B2565">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:2">
+      <c r="A2566" s="1" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B2566">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:2">
+      <c r="A2567" s="1" t="s">
+        <v>2566</v>
+      </c>
+      <c r="B2567">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:2">
+      <c r="A2568" s="1" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B2568">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:2">
+      <c r="A2569" s="1" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B2569">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:2">
+      <c r="A2570" s="1" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B2570">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:2">
+      <c r="A2571" s="1" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B2571">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:2">
+      <c r="A2572" s="1" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B2572">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:2">
+      <c r="A2573" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B2573">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:2">
+      <c r="A2574" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B2574">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:2">
+      <c r="A2575" s="1" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B2575">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:2">
+      <c r="A2576" s="1" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B2576">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:2">
+      <c r="A2577" s="1" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B2577">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:2">
+      <c r="A2578" s="1" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B2578">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:2">
+      <c r="A2579" s="1" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B2579">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:2">
+      <c r="A2580" s="1" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B2580">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:2">
+      <c r="A2581" s="1" t="s">
+        <v>2580</v>
+      </c>
+      <c r="B2581">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:2">
+      <c r="A2582" s="1" t="s">
+        <v>2581</v>
+      </c>
+      <c r="B2582">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:2">
+      <c r="A2583" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="B2583">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:2">
+      <c r="A2584" s="1" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B2584">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:2">
+      <c r="A2585" s="1" t="s">
+        <v>2584</v>
+      </c>
+      <c r="B2585">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:2">
+      <c r="A2586" s="1" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B2586">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:2">
+      <c r="A2587" s="1" t="s">
+        <v>2586</v>
+      </c>
+      <c r="B2587">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:2">
+      <c r="A2588" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B2588">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:2">
+      <c r="A2589" s="1" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B2589">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:2">
+      <c r="A2590" s="1" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B2590">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:2">
+      <c r="A2591" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B2591">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:2">
+      <c r="A2592" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B2592">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:2">
+      <c r="A2593" s="1" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B2593">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:2">
+      <c r="A2594" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B2594">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:2">
+      <c r="A2595" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B2595">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:2">
+      <c r="A2596" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="B2596">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:2">
+      <c r="A2597" s="1" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B2597">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:2">
+      <c r="A2598" s="1" t="s">
+        <v>2597</v>
+      </c>
+      <c r="B2598">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:2">
+      <c r="A2599" s="1" t="s">
+        <v>2598</v>
+      </c>
+      <c r="B2599">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:2">
+      <c r="A2600" s="1" t="s">
+        <v>2599</v>
+      </c>
+      <c r="B2600">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:2">
+      <c r="A2601" s="1" t="s">
+        <v>2600</v>
+      </c>
+      <c r="B2601">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:2">
+      <c r="A2602" s="1" t="s">
+        <v>2601</v>
+      </c>
+      <c r="B2602">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:2">
+      <c r="A2603" s="1" t="s">
+        <v>2602</v>
+      </c>
+      <c r="B2603">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:2">
+      <c r="A2604" s="1" t="s">
+        <v>2603</v>
+      </c>
+      <c r="B2604">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:2">
+      <c r="A2605" s="1" t="s">
+        <v>2604</v>
+      </c>
+      <c r="B2605">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:2">
+      <c r="A2606" s="1" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B2606">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:2">
+      <c r="A2607" s="1" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B2607">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:2">
+      <c r="A2608" s="1" t="s">
+        <v>2607</v>
+      </c>
+      <c r="B2608">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:2">
+      <c r="A2609" s="1" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B2609">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:2">
+      <c r="A2610" s="1" t="s">
+        <v>2609</v>
+      </c>
+      <c r="B2610">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:2">
+      <c r="A2611" s="1" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B2611">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:2">
+      <c r="A2612" s="1" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B2612">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:2">
+      <c r="A2613" s="1" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B2613">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:2">
+      <c r="A2614" s="1" t="s">
+        <v>2613</v>
+      </c>
+      <c r="B2614">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:2">
+      <c r="A2615" s="1" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B2615">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:2">
+      <c r="A2616" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B2616">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:2">
+      <c r="A2617" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B2617">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:2">
+      <c r="A2618" s="1" t="s">
+        <v>2617</v>
+      </c>
+      <c r="B2618">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:2">
+      <c r="A2619" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B2619">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:2">
+      <c r="A2620" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="B2620">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:2">
+      <c r="A2621" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B2621">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:2">
+      <c r="A2622" s="1" t="s">
+        <v>2621</v>
+      </c>
+      <c r="B2622">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:2">
+      <c r="A2623" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B2623">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:2">
+      <c r="A2624" s="1" t="s">
+        <v>2623</v>
+      </c>
+      <c r="B2624">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:2">
+      <c r="A2625" s="1" t="s">
+        <v>2624</v>
+      </c>
+      <c r="B2625">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:2">
+      <c r="A2626" s="1" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B2626">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:2">
+      <c r="A2627" s="1" t="s">
+        <v>2626</v>
+      </c>
+      <c r="B2627">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:2">
+      <c r="A2628" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B2628">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:2">
+      <c r="A2629" s="1" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B2629">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:2">
+      <c r="A2630" s="1" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B2630">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:2">
+      <c r="A2631" s="1" t="s">
+        <v>2630</v>
+      </c>
+      <c r="B2631">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:2">
+      <c r="A2632" s="1" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B2632">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:2">
+      <c r="A2633" s="1" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B2633">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:2">
+      <c r="A2634" s="1" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B2634">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:2">
+      <c r="A2635" s="1" t="s">
+        <v>2634</v>
+      </c>
+      <c r="B2635">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:2">
+      <c r="A2636" s="1" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B2636">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:2">
+      <c r="A2637" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B2637">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:2">
+      <c r="A2638" s="1" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B2638">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:2">
+      <c r="A2639" s="1" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B2639">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:2">
+      <c r="A2640" s="1" t="s">
+        <v>2639</v>
+      </c>
+      <c r="B2640">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:2">
+      <c r="A2641" s="1" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B2641">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:2">
+      <c r="A2642" s="1" t="s">
+        <v>2641</v>
+      </c>
+      <c r="B2642">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:2">
+      <c r="A2643" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B2643">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:2">
+      <c r="A2644" s="1" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B2644">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:2">
+      <c r="A2645" s="1" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B2645">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:2">
+      <c r="A2646" s="1" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B2646">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:2">
+      <c r="A2647" s="1" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B2647">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:2">
+      <c r="A2648" s="1" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B2648">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:2">
+      <c r="A2649" s="1" t="s">
+        <v>2648</v>
+      </c>
+      <c r="B2649">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:2">
+      <c r="A2650" s="1" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B2650">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:2">
+      <c r="A2651" s="1" t="s">
+        <v>2650</v>
+      </c>
+      <c r="B2651">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:2">
+      <c r="A2652" s="1" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B2652">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:2">
+      <c r="A2653" s="1" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B2653">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:2">
+      <c r="A2654" s="1" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B2654">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:2">
+      <c r="A2655" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="B2655">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:2">
+      <c r="A2656" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B2656">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:2">
+      <c r="A2657" s="1" t="s">
+        <v>2656</v>
+      </c>
+      <c r="B2657">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:2">
+      <c r="A2658" s="1" t="s">
+        <v>2657</v>
+      </c>
+      <c r="B2658">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:2">
+      <c r="A2659" s="1" t="s">
+        <v>2658</v>
+      </c>
+      <c r="B2659">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:2">
+      <c r="A2660" s="1" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B2660">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:2">
+      <c r="A2661" s="1" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B2661">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:2">
+      <c r="A2662" s="1" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B2662">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:2">
+      <c r="A2663" s="1" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B2663">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:2">
+      <c r="A2664" s="1" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B2664">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:2">
+      <c r="A2665" s="1" t="s">
+        <v>2664</v>
+      </c>
+      <c r="B2665">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:2">
+      <c r="A2666" s="1" t="s">
+        <v>2665</v>
+      </c>
+      <c r="B2666">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:2">
+      <c r="A2667" s="1" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B2667">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:2">
+      <c r="A2668" s="1" t="s">
+        <v>2667</v>
+      </c>
+      <c r="B2668">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:2">
+      <c r="A2669" s="1" t="s">
+        <v>2668</v>
+      </c>
+      <c r="B2669">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:2">
+      <c r="A2670" s="1" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B2670">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:2">
+      <c r="A2671" s="1" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B2671">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:2">
+      <c r="A2672" s="1" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B2672">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:2">
+      <c r="A2673" s="1" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B2673">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:2">
+      <c r="A2674" s="1" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B2674">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:2">
+      <c r="A2675" s="1" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B2675">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:2">
+      <c r="A2676" s="1" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B2676">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:2">
+      <c r="A2677" s="1" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B2677">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:2">
+      <c r="A2678" s="1" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B2678">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:2">
+      <c r="A2679" s="1" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B2679">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:2">
+      <c r="A2680" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B2680">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:2">
+      <c r="A2681" s="1" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B2681">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:2">
+      <c r="A2682" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B2682">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:2">
+      <c r="A2683" s="1" t="s">
+        <v>2682</v>
+      </c>
+      <c r="B2683">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:2">
+      <c r="A2684" s="1" t="s">
+        <v>2683</v>
+      </c>
+      <c r="B2684">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:2">
+      <c r="A2685" s="1" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B2685">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:2">
+      <c r="A2686" s="1" t="s">
+        <v>2685</v>
+      </c>
+      <c r="B2686">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:2">
+      <c r="A2687" s="1" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B2687">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:2">
+      <c r="A2688" s="1" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B2688">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2689" spans="1:2">
+      <c r="A2689" s="1" t="s">
+        <v>2688</v>
+      </c>
+      <c r="B2689">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2690" spans="1:2">
+      <c r="A2690" s="1" t="s">
+        <v>2689</v>
+      </c>
+      <c r="B2690">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2691" spans="1:2">
+      <c r="A2691" s="1" t="s">
+        <v>2690</v>
+      </c>
+      <c r="B2691">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2692" spans="1:2">
+      <c r="A2692" s="1" t="s">
+        <v>2691</v>
+      </c>
+      <c r="B2692">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2693" spans="1:2">
+      <c r="A2693" s="1" t="s">
+        <v>2692</v>
+      </c>
+      <c r="B2693">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2694" spans="1:2">
+      <c r="A2694" s="1" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B2694">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2695" spans="1:2">
+      <c r="A2695" s="1" t="s">
+        <v>2694</v>
+      </c>
+      <c r="B2695">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2696" spans="1:2">
+      <c r="A2696" s="1" t="s">
+        <v>2695</v>
+      </c>
+      <c r="B2696">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2697" spans="1:2">
+      <c r="A2697" s="1" t="s">
+        <v>2696</v>
+      </c>
+      <c r="B2697">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2698" spans="1:2">
+      <c r="A2698" s="1" t="s">
+        <v>2697</v>
+      </c>
+      <c r="B2698">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2699" spans="1:2">
+      <c r="A2699" s="1" t="s">
+        <v>2698</v>
+      </c>
+      <c r="B2699">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2700" spans="1:2">
+      <c r="A2700" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="B2700">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2701" spans="1:2">
+      <c r="A2701" s="1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="B2701">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2702" spans="1:2">
+      <c r="A2702" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="B2702">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2703" spans="1:2">
+      <c r="A2703" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B2703">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2704" spans="1:2">
+      <c r="A2704" s="1" t="s">
+        <v>2703</v>
+      </c>
+      <c r="B2704">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2705" spans="1:2">
+      <c r="A2705" s="1" t="s">
+        <v>2704</v>
+      </c>
+      <c r="B2705">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2706" spans="1:2">
+      <c r="A2706" s="1" t="s">
+        <v>2705</v>
+      </c>
+      <c r="B2706">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2707" spans="1:2">
+      <c r="A2707" s="1" t="s">
+        <v>2706</v>
+      </c>
+      <c r="B2707">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2708" spans="1:2">
+      <c r="A2708" s="1" t="s">
+        <v>2707</v>
+      </c>
+      <c r="B2708">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2709" spans="1:2">
+      <c r="A2709" s="1" t="s">
+        <v>2708</v>
+      </c>
+      <c r="B2709">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2710" spans="1:2">
+      <c r="A2710" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="B2710">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2711" spans="1:2">
+      <c r="A2711" s="1" t="s">
+        <v>2710</v>
+      </c>
+      <c r="B2711">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2712" spans="1:2">
+      <c r="A2712" s="1" t="s">
+        <v>2711</v>
+      </c>
+      <c r="B2712">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2713" spans="1:2">
+      <c r="A2713" s="1" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B2713">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2714" spans="1:2">
+      <c r="A2714" s="1" t="s">
+        <v>2713</v>
+      </c>
+      <c r="B2714">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2715" spans="1:2">
+      <c r="A2715" s="1" t="s">
+        <v>2714</v>
+      </c>
+      <c r="B2715">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2716" spans="1:2">
+      <c r="A2716" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="B2716">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2717" spans="1:2">
+      <c r="A2717" s="1" t="s">
+        <v>2716</v>
+      </c>
+      <c r="B2717">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2718" spans="1:2">
+      <c r="A2718" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="B2718">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2719" spans="1:2">
+      <c r="A2719" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="B2719">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2720" spans="1:2">
+      <c r="A2720" s="1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="B2720">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2721" spans="1:2">
+      <c r="A2721" s="1" t="s">
+        <v>2720</v>
+      </c>
+      <c r="B2721">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2722" spans="1:2">
+      <c r="A2722" s="1" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B2722">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2723" spans="1:2">
+      <c r="A2723" s="1" t="s">
+        <v>2722</v>
+      </c>
+      <c r="B2723">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2724" spans="1:2">
+      <c r="A2724" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="B2724">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2725" spans="1:2">
+      <c r="A2725" s="1" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B2725">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2726" spans="1:2">
+      <c r="A2726" s="1" t="s">
+        <v>2725</v>
+      </c>
+      <c r="B2726">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2727" spans="1:2">
+      <c r="A2727" s="1" t="s">
+        <v>2726</v>
+      </c>
+      <c r="B2727">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2728" spans="1:2">
+      <c r="A2728" s="1" t="s">
+        <v>2727</v>
+      </c>
+      <c r="B2728">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2729" spans="1:2">
+      <c r="A2729" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="B2729">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2730" spans="1:2">
+      <c r="A2730" s="1" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B2730">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:2">
+      <c r="A2731" s="1" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B2731">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:2">
+      <c r="A2732" s="1" t="s">
+        <v>2731</v>
+      </c>
+      <c r="B2732">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2733" spans="1:2">
+      <c r="A2733" s="1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="B2733">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2734" spans="1:2">
+      <c r="A2734" s="1" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B2734">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2735" spans="1:2">
+      <c r="A2735" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="B2735">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2736" spans="1:2">
+      <c r="A2736" s="1" t="s">
+        <v>2735</v>
+      </c>
+      <c r="B2736">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2737" spans="1:2">
+      <c r="A2737" s="1" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B2737">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2738" spans="1:2">
+      <c r="A2738" s="1" t="s">
+        <v>2737</v>
+      </c>
+      <c r="B2738">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2739" spans="1:2">
+      <c r="A2739" s="1" t="s">
+        <v>2738</v>
+      </c>
+      <c r="B2739">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2740" spans="1:2">
+      <c r="A2740" s="1" t="s">
+        <v>2739</v>
+      </c>
+      <c r="B2740">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2741" spans="1:2">
+      <c r="A2741" s="1" t="s">
+        <v>2740</v>
+      </c>
+      <c r="B2741">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2742" spans="1:2">
+      <c r="A2742" s="1" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B2742">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2743" spans="1:2">
+      <c r="A2743" s="1" t="s">
+        <v>2742</v>
+      </c>
+      <c r="B2743">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2744" spans="1:2">
+      <c r="A2744" s="1" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B2744">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2745" spans="1:2">
+      <c r="A2745" s="1" t="s">
+        <v>2744</v>
+      </c>
+      <c r="B2745">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2746" spans="1:2">
+      <c r="A2746" s="1" t="s">
+        <v>2745</v>
+      </c>
+      <c r="B2746">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2747" spans="1:2">
+      <c r="A2747" s="1" t="s">
+        <v>2746</v>
+      </c>
+      <c r="B2747">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2748" spans="1:2">
+      <c r="A2748" s="1" t="s">
+        <v>2747</v>
+      </c>
+      <c r="B2748">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2749" spans="1:2">
+      <c r="A2749" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B2749">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2750" spans="1:2">
+      <c r="A2750" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B2750">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2751" spans="1:2">
+      <c r="A2751" s="1" t="s">
+        <v>2750</v>
+      </c>
+      <c r="B2751">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2752" spans="1:2">
+      <c r="A2752" s="1" t="s">
+        <v>2751</v>
+      </c>
+      <c r="B2752">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2753" spans="1:2">
+      <c r="A2753" s="1" t="s">
+        <v>2752</v>
+      </c>
+      <c r="B2753">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2754" spans="1:2">
+      <c r="A2754" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B2754">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2755" spans="1:2">
+      <c r="A2755" s="1" t="s">
+        <v>2754</v>
+      </c>
+      <c r="B2755">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2756" spans="1:2">
+      <c r="A2756" s="1" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B2756">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2757" spans="1:2">
+      <c r="A2757" s="1" t="s">
+        <v>2756</v>
+      </c>
+      <c r="B2757">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2758" spans="1:2">
+      <c r="A2758" s="1" t="s">
+        <v>2757</v>
+      </c>
+      <c r="B2758">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2759" spans="1:2">
+      <c r="A2759" s="1" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B2759">
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:2">
+      <c r="A2760" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="B2760">
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="2761" spans="1:2">
+      <c r="A2761" s="1" t="s">
+        <v>2760</v>
+      </c>
+      <c r="B2761">
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="2762" spans="1:2">
+      <c r="A2762" s="1" t="s">
+        <v>2761</v>
+      </c>
+      <c r="B2762">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="2763" spans="1:2">
+      <c r="A2763" s="1" t="s">
+        <v>2762</v>
+      </c>
+      <c r="B2763">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:2">
+      <c r="A2764" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="B2764">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="2765" spans="1:2">
+      <c r="A2765" s="1" t="s">
+        <v>2764</v>
+      </c>
+      <c r="B2765">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:2">
+      <c r="A2766" s="1" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B2766">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="2767" spans="1:2">
+      <c r="A2767" s="1" t="s">
+        <v>2766</v>
+      </c>
+      <c r="B2767">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="2768" spans="1:2">
+      <c r="A2768" s="1" t="s">
+        <v>2767</v>
+      </c>
+      <c r="B2768">
+        <v>3517</v>
+      </c>
+    </row>
+    <row r="2769" spans="1:2">
+      <c r="A2769" s="1" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B2769">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="2770" spans="1:2">
+      <c r="A2770" s="1" t="s">
+        <v>2769</v>
+      </c>
+      <c r="B2770">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="2771" spans="1:2">
+      <c r="A2771" s="1" t="s">
+        <v>2770</v>
+      </c>
+      <c r="B2771">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="2772" spans="1:2">
+      <c r="A2772" s="1" t="s">
+        <v>2771</v>
+      </c>
+      <c r="B2772">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:2">
+      <c r="A2773" s="1" t="s">
+        <v>2772</v>
+      </c>
+      <c r="B2773">
+        <v>3519</v>
+      </c>
+    </row>
+    <row r="2774" spans="1:2">
+      <c r="A2774" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B2774">
+        <v>3519</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:2">
+      <c r="A2775" s="1" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B2775">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:2">
+      <c r="A2776" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B2776">
+        <v>3521</v>
+      </c>
+    </row>
+    <row r="2777" spans="1:2">
+      <c r="A2777" s="1" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B2777">
+        <v>3521</v>
+      </c>
+    </row>
+    <row r="2778" spans="1:2">
+      <c r="A2778" s="1" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B2778">
+        <v>3521</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:2">
+      <c r="A2779" s="1" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B2779">
+        <v>3521</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:2">
+      <c r="A2780" s="1" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B2780">
+        <v>3521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
